--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.297375248259</v>
+        <v>1140.470978930328</v>
       </c>
       <c r="AB2" t="n">
-        <v>1460.323354651712</v>
+        <v>1560.44270740108</v>
       </c>
       <c r="AC2" t="n">
-        <v>1320.952143260453</v>
+        <v>1411.516245501815</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067297.375248259</v>
+        <v>1140470.978930328</v>
       </c>
       <c r="AE2" t="n">
-        <v>1460323.354651712</v>
+        <v>1560442.70740108</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283596229980258e-06</v>
+        <v>2.37498908947787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.83919270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1320952.143260453</v>
+        <v>1411516.245501815</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.0100218690171</v>
+        <v>559.7924243237298</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.186456092267</v>
+        <v>765.9326912585118</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.4570820371748</v>
+        <v>692.8331501980824</v>
       </c>
       <c r="AD3" t="n">
-        <v>511010.0218690171</v>
+        <v>559792.4243237298</v>
       </c>
       <c r="AE3" t="n">
-        <v>699186.4560922671</v>
+        <v>765932.6912585117</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.013998710860063e-06</v>
+        <v>3.726424909014193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.545572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>632457.0820371748</v>
+        <v>692833.1501980824</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.4992512765345</v>
+        <v>453.1963128766756</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.4537208440674</v>
+        <v>620.0831888881144</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.6328745038846</v>
+        <v>560.9033196328535</v>
       </c>
       <c r="AD4" t="n">
-        <v>404499.2512765345</v>
+        <v>453196.3128766756</v>
       </c>
       <c r="AE4" t="n">
-        <v>553453.7208440674</v>
+        <v>620083.1888881144</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.296430962510505e-06</v>
+        <v>4.248998519406291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.617838541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>500632.8745038846</v>
+        <v>560903.3196328535</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>368.2170890494527</v>
+        <v>404.7186395444667</v>
       </c>
       <c r="AB5" t="n">
-        <v>503.8108658289452</v>
+        <v>553.7538975509794</v>
       </c>
       <c r="AC5" t="n">
-        <v>455.7278638972212</v>
+        <v>500.9044027671897</v>
       </c>
       <c r="AD5" t="n">
-        <v>368217.0890494527</v>
+        <v>404718.6395444667</v>
       </c>
       <c r="AE5" t="n">
-        <v>503810.8658289452</v>
+        <v>553753.8975509794</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.408376836801044e-06</v>
+        <v>4.456127695888976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.310221354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>455727.8638972212</v>
+        <v>500904.4027671897</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.3774165650775</v>
+        <v>372.8789670600915</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.2464212686097</v>
+        <v>510.1894529906438</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.3211487826421</v>
+        <v>461.4976876526106</v>
       </c>
       <c r="AD6" t="n">
-        <v>336377.4165650775</v>
+        <v>372878.9670600915</v>
       </c>
       <c r="AE6" t="n">
-        <v>460246.4212686097</v>
+        <v>510189.4529906438</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.510892741697635e-06</v>
+        <v>4.645808960090802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.051432291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>416321.1487826421</v>
+        <v>461497.6876526106</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>337.5899209444665</v>
+        <v>374.0914714394804</v>
       </c>
       <c r="AB7" t="n">
-        <v>461.9054232524075</v>
+        <v>511.8484549744417</v>
       </c>
       <c r="AC7" t="n">
-        <v>417.8218179455302</v>
+        <v>462.9983568154987</v>
       </c>
       <c r="AD7" t="n">
-        <v>337589.9209444665</v>
+        <v>374091.4714394804</v>
       </c>
       <c r="AE7" t="n">
-        <v>461905.4232524075</v>
+        <v>511848.4549744417</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.510706009630428e-06</v>
+        <v>4.64546345687732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.053059895833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>417821.8179455302</v>
+        <v>462998.3568154987</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>735.0005297346521</v>
+        <v>805.4121208218123</v>
       </c>
       <c r="AB2" t="n">
-        <v>1005.660150717816</v>
+        <v>1102.000395983433</v>
       </c>
       <c r="AC2" t="n">
-        <v>909.6813573861933</v>
+        <v>996.8270248580432</v>
       </c>
       <c r="AD2" t="n">
-        <v>735000.5297346521</v>
+        <v>805412.1208218123</v>
       </c>
       <c r="AE2" t="n">
-        <v>1005660.150717816</v>
+        <v>1102000.395983433</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581303626162563e-06</v>
+        <v>3.014208757847428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>909681.3573861934</v>
+        <v>996827.0248580432</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.9092191890903</v>
+        <v>445.8787268653875</v>
       </c>
       <c r="AB3" t="n">
-        <v>545.8051923272157</v>
+        <v>610.0709448783595</v>
       </c>
       <c r="AC3" t="n">
-        <v>493.714310813904</v>
+        <v>551.8466301391169</v>
       </c>
       <c r="AD3" t="n">
-        <v>398909.2191890902</v>
+        <v>445878.7268653875</v>
       </c>
       <c r="AE3" t="n">
-        <v>545805.1923272157</v>
+        <v>610070.9448783594</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.26194414983515e-06</v>
+        <v>4.311614640851998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.949869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>493714.310813904</v>
+        <v>551846.6301391169</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.0301995523852</v>
+        <v>358.2360846045163</v>
       </c>
       <c r="AB4" t="n">
-        <v>441.9841701141875</v>
+        <v>490.1544152165443</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.8018212471674</v>
+        <v>443.3747657643189</v>
       </c>
       <c r="AD4" t="n">
-        <v>323030.1995523853</v>
+        <v>358236.0846045163</v>
       </c>
       <c r="AE4" t="n">
-        <v>441984.1701141875</v>
+        <v>490154.4152165443</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.538179696550575e-06</v>
+        <v>4.838162224986108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.193033854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>399801.8212471674</v>
+        <v>443374.7657643189</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.7762860176321</v>
+        <v>346.9821710697632</v>
       </c>
       <c r="AB5" t="n">
-        <v>426.5860691283136</v>
+        <v>474.7563142306703</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.8732934080148</v>
+        <v>429.4462379251663</v>
       </c>
       <c r="AD5" t="n">
-        <v>311776.2860176321</v>
+        <v>346982.1710697633</v>
       </c>
       <c r="AE5" t="n">
-        <v>426586.0691283136</v>
+        <v>474756.3142306703</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.574109634794678e-06</v>
+        <v>4.906650232432922e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>385873.2934080148</v>
+        <v>429446.2379251663</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.6978808519347</v>
+        <v>315.4663099621266</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.4855152799318</v>
+        <v>431.6349226815379</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.745143295336</v>
+        <v>390.44029146423</v>
       </c>
       <c r="AD2" t="n">
-        <v>273697.8808519347</v>
+        <v>315466.3099621266</v>
       </c>
       <c r="AE2" t="n">
-        <v>374485.5152799318</v>
+        <v>431634.9226815379</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57443920484566e-06</v>
+        <v>5.48288176802725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.813151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>338745.143295336</v>
+        <v>390440.29146423</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.7469266570525</v>
+        <v>303.5153557672445</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.1336925116057</v>
+        <v>415.2830999132119</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.9539155420916</v>
+        <v>375.6490637109856</v>
       </c>
       <c r="AD3" t="n">
-        <v>261746.9266570525</v>
+        <v>303515.3557672445</v>
       </c>
       <c r="AE3" t="n">
-        <v>358133.6925116057</v>
+        <v>415283.0999132118</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.645463420360094e-06</v>
+        <v>5.63414475982739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.630859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>323953.9155420917</v>
+        <v>375649.0637109856</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.8031394633283</v>
+        <v>449.6903236481297</v>
       </c>
       <c r="AB2" t="n">
-        <v>555.2377581847256</v>
+        <v>615.2861397522894</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.2466458246627</v>
+        <v>556.564094133851</v>
       </c>
       <c r="AD2" t="n">
-        <v>405803.1394633283</v>
+        <v>449690.3236481296</v>
       </c>
       <c r="AE2" t="n">
-        <v>555237.7581847257</v>
+        <v>615286.1397522894</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.159856834041218e-06</v>
+        <v>4.385256103997137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.770182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>502246.6458246626</v>
+        <v>556564.094133851</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.1346517875156</v>
+        <v>309.9647885800961</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.1878568936265</v>
+        <v>424.10749841665</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9987000251978</v>
+        <v>383.6312740063767</v>
       </c>
       <c r="AD3" t="n">
-        <v>277134.6517875156</v>
+        <v>309964.7885800961</v>
       </c>
       <c r="AE3" t="n">
-        <v>379187.8568936265</v>
+        <v>424107.49841665</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.6472371688948e-06</v>
+        <v>5.374806686563227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.339518229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>342998.7000251978</v>
+        <v>383631.2740063767</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.6073705718974</v>
+        <v>311.4375073644779</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.202895706185</v>
+        <v>426.1225372292085</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.8214263616103</v>
+        <v>385.4540003427894</v>
       </c>
       <c r="AD4" t="n">
-        <v>278607.3705718974</v>
+        <v>311437.5073644779</v>
       </c>
       <c r="AE4" t="n">
-        <v>381202.895706185</v>
+        <v>426122.5372292086</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.646721640721695e-06</v>
+        <v>5.373759986137412e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>344821.4263616104</v>
+        <v>385454.0003427893</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.0862496844185</v>
+        <v>292.2258040839501</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.5979692475233</v>
+        <v>399.8362372402595</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.3738823579498</v>
+        <v>361.6764279317318</v>
       </c>
       <c r="AD2" t="n">
-        <v>262086.2496844186</v>
+        <v>292225.8040839501</v>
       </c>
       <c r="AE2" t="n">
-        <v>358597.9692475233</v>
+        <v>399836.2372402595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.587358547729043e-06</v>
+        <v>5.761542112465258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.041015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>324373.8823579498</v>
+        <v>361676.4279317319</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>813.8847545720251</v>
+        <v>873.1856548639638</v>
       </c>
       <c r="AB2" t="n">
-        <v>1113.593027266694</v>
+        <v>1194.731135217206</v>
       </c>
       <c r="AC2" t="n">
-        <v>1007.31327168199</v>
+        <v>1080.707672487755</v>
       </c>
       <c r="AD2" t="n">
-        <v>813884.7545720252</v>
+        <v>873185.6548639638</v>
       </c>
       <c r="AE2" t="n">
-        <v>1113593.027266694</v>
+        <v>1194731.135217206</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501436182210714e-06</v>
+        <v>2.838860984079783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3759765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1007313.27168199</v>
+        <v>1080707.672487755</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>433.8296009093361</v>
+        <v>469.4613814006627</v>
       </c>
       <c r="AB3" t="n">
-        <v>593.584799175369</v>
+        <v>642.3377732068136</v>
       </c>
       <c r="AC3" t="n">
-        <v>536.933899043569</v>
+        <v>581.0339576586813</v>
       </c>
       <c r="AD3" t="n">
-        <v>433829.6009093361</v>
+        <v>469461.3814006626</v>
       </c>
       <c r="AE3" t="n">
-        <v>593584.799175369</v>
+        <v>642337.7732068136</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199987837047753e-06</v>
+        <v>4.159657073702011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.081705729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>536933.899043569</v>
+        <v>581033.9576586813</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.2485639413086</v>
+        <v>379.7950035780637</v>
       </c>
       <c r="AB4" t="n">
-        <v>471.0160723592837</v>
+        <v>519.6522792685307</v>
       </c>
       <c r="AC4" t="n">
-        <v>426.0629594885224</v>
+        <v>470.057395071696</v>
       </c>
       <c r="AD4" t="n">
-        <v>344248.5639413086</v>
+        <v>379795.0035780637</v>
       </c>
       <c r="AE4" t="n">
-        <v>471016.0723592837</v>
+        <v>519652.2792685307</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.471061869179638e-06</v>
+        <v>4.672194005164075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.305338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>426062.9594885224</v>
+        <v>470057.395071696</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>318.223715350071</v>
+        <v>353.7701549868259</v>
       </c>
       <c r="AB5" t="n">
-        <v>435.4077263814637</v>
+        <v>484.0439332907106</v>
       </c>
       <c r="AC5" t="n">
-        <v>393.8530240741981</v>
+        <v>437.8474596573717</v>
       </c>
       <c r="AD5" t="n">
-        <v>318223.715350071</v>
+        <v>353770.1549868259</v>
       </c>
       <c r="AE5" t="n">
-        <v>435407.7263814637</v>
+        <v>484043.9332907106</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.554911040135687e-06</v>
+        <v>4.830732971251917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.097005208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>393853.024074198</v>
+        <v>437847.4596573717</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.4877698650995</v>
+        <v>355.0342095018545</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.1372615350752</v>
+        <v>485.7734684443222</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.4174948201667</v>
+        <v>439.4119304033402</v>
       </c>
       <c r="AD6" t="n">
-        <v>319487.7698650995</v>
+        <v>355034.2095018545</v>
       </c>
       <c r="AE6" t="n">
-        <v>437137.2615350752</v>
+        <v>485773.4684443222</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.554911040135687e-06</v>
+        <v>4.830732971251917e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.097005208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>395417.4948201667</v>
+        <v>439411.9304033403</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.4591880002798</v>
+        <v>297.4869517388827</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.6352634366165</v>
+        <v>407.0347715671916</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.8848102244345</v>
+        <v>368.187944245708</v>
       </c>
       <c r="AD2" t="n">
-        <v>258459.1880002798</v>
+        <v>297486.9517388827</v>
       </c>
       <c r="AE2" t="n">
-        <v>353635.2634366165</v>
+        <v>407034.7715671916</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522307329819365e-06</v>
+        <v>5.78255791304547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.392578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>319884.8102244345</v>
+        <v>368187.9442457079</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.5619385076114</v>
+        <v>611.4530509863247</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.77610981215</v>
+        <v>836.6170397642712</v>
       </c>
       <c r="AC2" t="n">
-        <v>686.3595828406363</v>
+        <v>756.7714836885584</v>
       </c>
       <c r="AD2" t="n">
-        <v>554561.9385076114</v>
+        <v>611453.0509863247</v>
       </c>
       <c r="AE2" t="n">
-        <v>758776.10981215</v>
+        <v>836617.0397642712</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.843485002091146e-06</v>
+        <v>3.613205127257252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.785807291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>686359.5828406364</v>
+        <v>756771.4836885585</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.6139839109345</v>
+        <v>360.8851967654771</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.8876619789621</v>
+        <v>493.7790473457511</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.237330730462</v>
+        <v>446.6534680903173</v>
       </c>
       <c r="AD3" t="n">
-        <v>326613.9839109345</v>
+        <v>360885.1967654771</v>
       </c>
       <c r="AE3" t="n">
-        <v>446887.6619789621</v>
+        <v>493779.0473457511</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485644716989616e-06</v>
+        <v>4.871829293853261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.516927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>404237.330730462</v>
+        <v>446653.4680903173</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.1204112894</v>
+        <v>329.2210319433503</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.7967665198133</v>
+        <v>450.4547401117553</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.2589698554827</v>
+        <v>407.4639719326871</v>
       </c>
       <c r="AD4" t="n">
-        <v>295120.4112894</v>
+        <v>329221.0319433503</v>
       </c>
       <c r="AE4" t="n">
-        <v>403796.7665198133</v>
+        <v>450454.7401117553</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.612225711465186e-06</v>
+        <v>5.119926293684366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.201171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>365258.9698554827</v>
+        <v>407463.971932687</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.2229885038939</v>
+        <v>732.4523748339168</v>
       </c>
       <c r="AB2" t="n">
-        <v>922.5016374900113</v>
+        <v>1002.17365276597</v>
       </c>
       <c r="AC2" t="n">
-        <v>834.4593759471438</v>
+        <v>906.5276059055406</v>
       </c>
       <c r="AD2" t="n">
-        <v>674222.988503894</v>
+        <v>732452.3748339168</v>
       </c>
       <c r="AE2" t="n">
-        <v>922501.6374900113</v>
+        <v>1002173.65276597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.664185765477609e-06</v>
+        <v>3.199735099035976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.5361328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>834459.3759471439</v>
+        <v>906527.6059055405</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.3677678662738</v>
+        <v>419.8659360757205</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.8582518180322</v>
+        <v>574.4790969166011</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.1026572585779</v>
+        <v>519.6516181933564</v>
       </c>
       <c r="AD3" t="n">
-        <v>373367.7678662738</v>
+        <v>419865.9360757205</v>
       </c>
       <c r="AE3" t="n">
-        <v>510858.2518180322</v>
+        <v>574479.0969166011</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.336958309524685e-06</v>
+        <v>4.493276942447519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.790364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>462102.6572585779</v>
+        <v>519651.6181933564</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.2254181572983</v>
+        <v>342.0777986092916</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.3593709516845</v>
+        <v>468.0459354646102</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.2408625661375</v>
+        <v>423.3762882904633</v>
       </c>
       <c r="AD4" t="n">
-        <v>307225.4181572984</v>
+        <v>342077.7986092916</v>
       </c>
       <c r="AE4" t="n">
-        <v>420359.3709516845</v>
+        <v>468045.9354646102</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.587736712899915e-06</v>
+        <v>4.975449351324982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>380240.8625661375</v>
+        <v>423376.2882904633</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.448726402818</v>
+        <v>341.3011068548112</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.2966670279827</v>
+        <v>466.9832315409083</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.2795816133994</v>
+        <v>422.4150073377251</v>
       </c>
       <c r="AD5" t="n">
-        <v>306448.726402818</v>
+        <v>341301.1068548112</v>
       </c>
       <c r="AE5" t="n">
-        <v>419296.6670279827</v>
+        <v>466983.2315409083</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.588126725968927e-06</v>
+        <v>4.976199230654495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.131184895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>379279.5816133994</v>
+        <v>422415.0073377251</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>980.9772504172148</v>
+        <v>1053.36379085284</v>
       </c>
       <c r="AB2" t="n">
-        <v>1342.216351682738</v>
+        <v>1441.258809775541</v>
       </c>
       <c r="AC2" t="n">
-        <v>1214.117106890618</v>
+        <v>1303.707091790006</v>
       </c>
       <c r="AD2" t="n">
-        <v>980977.2504172148</v>
+        <v>1053363.79085284</v>
       </c>
       <c r="AE2" t="n">
-        <v>1342216.351682738</v>
+        <v>1441258.809775541</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.351454136161764e-06</v>
+        <v>2.51765655270562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.33463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1214117.106890618</v>
+        <v>1303707.091790006</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.1125922146805</v>
+        <v>533.3134217715664</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.752450325242</v>
+        <v>729.7029517954948</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.404848048615</v>
+        <v>660.061126220657</v>
       </c>
       <c r="AD3" t="n">
-        <v>485112.5922146805</v>
+        <v>533313.4217715664</v>
       </c>
       <c r="AE3" t="n">
-        <v>663752.450325242</v>
+        <v>729702.9517954948</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071790484224587e-06</v>
+        <v>3.859588534210412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.394205729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>600404.848048615</v>
+        <v>660061.126220657</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.9594791167013</v>
+        <v>420.3233862893816</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.350298424189</v>
+        <v>575.1050004802113</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.2116032763583</v>
+        <v>520.2177863993169</v>
       </c>
       <c r="AD4" t="n">
-        <v>383959.4791167013</v>
+        <v>420323.3862893817</v>
       </c>
       <c r="AE4" t="n">
-        <v>525350.298424189</v>
+        <v>575105.0004802113</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.354410036515241e-06</v>
+        <v>4.386087324445438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.505533854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>475211.6032763583</v>
+        <v>520217.7863993169</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>343.2022925178439</v>
+        <v>379.3956074899319</v>
       </c>
       <c r="AB5" t="n">
-        <v>469.5845176394615</v>
+        <v>519.1058079206369</v>
       </c>
       <c r="AC5" t="n">
-        <v>424.7680303419604</v>
+        <v>469.5630781822678</v>
       </c>
       <c r="AD5" t="n">
-        <v>343202.2925178439</v>
+        <v>379395.6074899319</v>
       </c>
       <c r="AE5" t="n">
-        <v>469584.5176394614</v>
+        <v>519105.807920637</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.484473380260056e-06</v>
+        <v>4.628385469002483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>424768.0303419604</v>
+        <v>469563.0781822678</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.7256518897516</v>
+        <v>366.9189668618397</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.5134275015688</v>
+        <v>502.0347177827441</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.3261810874026</v>
+        <v>454.1212289277101</v>
       </c>
       <c r="AD6" t="n">
-        <v>330725.6518897517</v>
+        <v>366918.9668618398</v>
       </c>
       <c r="AE6" t="n">
-        <v>452513.4275015688</v>
+        <v>502034.7177827441</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.524941714420889e-06</v>
+        <v>4.703774906165674e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.066080729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>409326.1810874026</v>
+        <v>454121.2289277101</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.0254283968532</v>
+        <v>504.4221110072687</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.4270860221347</v>
+        <v>690.1725858131078</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.3554483386449</v>
+        <v>624.3034828864122</v>
       </c>
       <c r="AD2" t="n">
-        <v>460025.4283968532</v>
+        <v>504422.1110072687</v>
       </c>
       <c r="AE2" t="n">
-        <v>629427.0860221348</v>
+        <v>690172.5858131079</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.047402382369949e-06</v>
+        <v>4.104012660008291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.094075520833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>569355.4483386449</v>
+        <v>624303.4828864122</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.5465219547398</v>
+        <v>317.8227210760464</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.3291046450567</v>
+        <v>434.8590683251243</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.172081324562</v>
+        <v>393.3567291727093</v>
       </c>
       <c r="AD3" t="n">
-        <v>284546.5219547398</v>
+        <v>317822.7210760463</v>
       </c>
       <c r="AE3" t="n">
-        <v>389329.1046450567</v>
+        <v>434859.0683251243</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.629378214963645e-06</v>
+        <v>5.270581677095535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>352172.081324562</v>
+        <v>393356.7291727093</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>283.7947336844325</v>
+        <v>317.0709328057391</v>
       </c>
       <c r="AB4" t="n">
-        <v>388.3004747670647</v>
+        <v>433.8304384471322</v>
       </c>
       <c r="AC4" t="n">
-        <v>351.2416224384344</v>
+        <v>392.4262702865817</v>
       </c>
       <c r="AD4" t="n">
-        <v>283794.7336844325</v>
+        <v>317070.9328057391</v>
       </c>
       <c r="AE4" t="n">
-        <v>388300.4747670647</v>
+        <v>433830.4384471322</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639356107124978e-06</v>
+        <v>5.290582335541048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.279296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>351241.6224384344</v>
+        <v>392426.2702865817</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.1625201283705</v>
+        <v>355.0983566575376</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.1652169638224</v>
+        <v>485.8612374127007</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.965589239574</v>
+        <v>439.4913228245613</v>
       </c>
       <c r="AD2" t="n">
-        <v>323162.5201283705</v>
+        <v>355098.3566575376</v>
       </c>
       <c r="AE2" t="n">
-        <v>442165.2169638224</v>
+        <v>485861.2374127007</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424797542138278e-06</v>
+        <v>5.072828099940555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.119140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>399965.589239574</v>
+        <v>439491.3228245613</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.1364516825039</v>
+        <v>298.1575395576917</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.1396343036051</v>
+        <v>407.9522994051328</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.3866586788549</v>
+        <v>369.0179045145543</v>
       </c>
       <c r="AD3" t="n">
-        <v>266136.4516825039</v>
+        <v>298157.5395576917</v>
       </c>
       <c r="AE3" t="n">
-        <v>364139.6343036051</v>
+        <v>407952.2994051328</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.655579130367858e-06</v>
+        <v>5.555637615116631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>329386.6586788549</v>
+        <v>369017.9045145544</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.9037647033853</v>
+        <v>296.8799646603929</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.1388205443207</v>
+        <v>406.2042650680219</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.7220629345964</v>
+        <v>367.4367001211958</v>
       </c>
       <c r="AD2" t="n">
-        <v>255903.7647033854</v>
+        <v>296879.964660393</v>
       </c>
       <c r="AE2" t="n">
-        <v>350138.8205443207</v>
+        <v>406204.265068022</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.62463595015577e-06</v>
+        <v>5.705580004019767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.803385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>316722.0629345963</v>
+        <v>367436.7001211958</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.2279934338163</v>
+        <v>298.2041933908239</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.9506887141439</v>
+        <v>408.0161332378461</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.3610089492651</v>
+        <v>369.0756461358648</v>
       </c>
       <c r="AD3" t="n">
-        <v>257227.9934338163</v>
+        <v>298204.1933908239</v>
       </c>
       <c r="AE3" t="n">
-        <v>351950.6887141439</v>
+        <v>408016.1332378461</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.628256440326532e-06</v>
+        <v>5.713450427467188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.793619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>318361.0089492651</v>
+        <v>369075.6461358648</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.184939057325</v>
+        <v>306.1491970754668</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.9424651027201</v>
+        <v>418.8868377879993</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.9219912403001</v>
+        <v>378.9088659008811</v>
       </c>
       <c r="AD2" t="n">
-        <v>268184.939057325</v>
+        <v>306149.1970754667</v>
       </c>
       <c r="AE2" t="n">
-        <v>366942.4651027201</v>
+        <v>418886.8377879993</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385347928138823e-06</v>
+        <v>5.673614364462073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.035481770833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>331921.9912403001</v>
+        <v>378908.8659008811</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.2612384295394</v>
+        <v>664.3543531427048</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.9323021801093</v>
+        <v>908.9989352153673</v>
       </c>
       <c r="AC2" t="n">
-        <v>765.197710533482</v>
+        <v>822.2453526264301</v>
       </c>
       <c r="AD2" t="n">
-        <v>618261.2384295394</v>
+        <v>664354.3531427048</v>
       </c>
       <c r="AE2" t="n">
-        <v>845932.3021801093</v>
+        <v>908998.9352153672</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750914487149374e-06</v>
+        <v>3.397786475051319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>765197.710533482</v>
+        <v>822245.3526264301</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.6062660886361</v>
+        <v>397.6139504386787</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.0832050361666</v>
+        <v>544.0329484796783</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.1692991520331</v>
+        <v>492.1112074318159</v>
       </c>
       <c r="AD3" t="n">
-        <v>351606.2660886361</v>
+        <v>397613.9504386787</v>
       </c>
       <c r="AE3" t="n">
-        <v>481083.2050361666</v>
+        <v>544032.9484796784</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.402829779890029e-06</v>
+        <v>4.662879077123295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.669921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>435169.2991520331</v>
+        <v>492111.2074318159</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.1495976838507</v>
+        <v>335.6341152412909</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.046165333632</v>
+        <v>459.2294036052647</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.7210576246145</v>
+        <v>415.4011938576934</v>
       </c>
       <c r="AD4" t="n">
-        <v>301149.5976838507</v>
+        <v>335634.1152412909</v>
       </c>
       <c r="AE4" t="n">
-        <v>412046.165333632</v>
+        <v>459229.4036052647</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.595647022063172e-06</v>
+        <v>5.037056012902288e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.175130208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>372721.0576246145</v>
+        <v>415401.1938576934</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.1267228442573</v>
+        <v>336.6112404016974</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.3831110858199</v>
+        <v>460.5663493574527</v>
       </c>
       <c r="AC5" t="n">
-        <v>373.9304071506289</v>
+        <v>416.6105433837078</v>
       </c>
       <c r="AD5" t="n">
-        <v>302126.7228442573</v>
+        <v>336611.2404016975</v>
       </c>
       <c r="AE5" t="n">
-        <v>413383.1110858199</v>
+        <v>460566.3493574527</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.597222648148346e-06</v>
+        <v>5.040113638526631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>373930.4071506289</v>
+        <v>416610.5433837078</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>887.9938759543843</v>
+        <v>959.8295193245594</v>
       </c>
       <c r="AB2" t="n">
-        <v>1214.992396605726</v>
+        <v>1313.281093029717</v>
       </c>
       <c r="AC2" t="n">
-        <v>1099.035227526214</v>
+        <v>1187.943388712551</v>
       </c>
       <c r="AD2" t="n">
-        <v>887993.8759543843</v>
+        <v>959829.5193245595</v>
       </c>
       <c r="AE2" t="n">
-        <v>1214992.396605726</v>
+        <v>1313281.093029717</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.424566962648101e-06</v>
+        <v>2.673046378751035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.84147135416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1099035.227526214</v>
+        <v>1187943.388712551</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.5074005931943</v>
+        <v>495.4679822141188</v>
       </c>
       <c r="AB3" t="n">
-        <v>628.7182975273951</v>
+        <v>677.9211517700377</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.7143056230524</v>
+        <v>613.2213085134168</v>
       </c>
       <c r="AD3" t="n">
-        <v>459507.4005931943</v>
+        <v>495467.9822141188</v>
       </c>
       <c r="AE3" t="n">
-        <v>628718.2975273951</v>
+        <v>677921.1517700377</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.132959740170622e-06</v>
+        <v>4.00226908174707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.2412109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>568714.3056230524</v>
+        <v>613221.3085134168</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.8072421016385</v>
+        <v>400.6824828679913</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.1453628031155</v>
+        <v>548.2314499235604</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.5076299321021</v>
+        <v>495.9090097905276</v>
       </c>
       <c r="AD4" t="n">
-        <v>364807.2421016385</v>
+        <v>400682.4828679913</v>
       </c>
       <c r="AE4" t="n">
-        <v>499145.3628031155</v>
+        <v>548231.4499235604</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.408820129220584e-06</v>
+        <v>4.519891372116726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.412760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>451507.629932102</v>
+        <v>495909.0097905276</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.0098193473616</v>
+        <v>362.8850601137144</v>
       </c>
       <c r="AB5" t="n">
-        <v>447.4292614861086</v>
+        <v>496.5153486065535</v>
       </c>
       <c r="AC5" t="n">
-        <v>404.7272407407862</v>
+        <v>449.1286205992118</v>
       </c>
       <c r="AD5" t="n">
-        <v>327009.8193473616</v>
+        <v>362885.0601137144</v>
       </c>
       <c r="AE5" t="n">
-        <v>447429.2614861086</v>
+        <v>496515.3486065535</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530286004000065e-06</v>
+        <v>4.747808995671303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.103515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>404727.2407407861</v>
+        <v>449128.6205992118</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.0067764131456</v>
+        <v>360.8820171794985</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.6886097754967</v>
+        <v>493.7746968959415</v>
       </c>
       <c r="AC6" t="n">
-        <v>402.2481529829061</v>
+        <v>446.6495328413318</v>
       </c>
       <c r="AD6" t="n">
-        <v>325006.7764131456</v>
+        <v>360882.0171794984</v>
       </c>
       <c r="AE6" t="n">
-        <v>444688.6097754966</v>
+        <v>493774.6968959415</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.540155106325898e-06</v>
+        <v>4.766327302585112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>402248.1529829061</v>
+        <v>446649.5328413318</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.3050485869629</v>
+        <v>328.9354212025377</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.630466013325</v>
+        <v>450.0639548959187</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.6355583797884</v>
+        <v>407.1104827093795</v>
       </c>
       <c r="AD2" t="n">
-        <v>283305.0485869629</v>
+        <v>328935.4212025377</v>
       </c>
       <c r="AE2" t="n">
-        <v>387630.466013325</v>
+        <v>450063.9548959187</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.109837701284169e-06</v>
+        <v>5.276543976316665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.405924479166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>350635.5583797884</v>
+        <v>407110.4827093795</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.1997534523379</v>
+        <v>406.2849491491173</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.9459259157483</v>
+        <v>555.8969914527654</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.5181042143361</v>
+        <v>502.8429627948405</v>
       </c>
       <c r="AD2" t="n">
-        <v>363199.7534523379</v>
+        <v>406284.9491491173</v>
       </c>
       <c r="AE2" t="n">
-        <v>496945.9259157483</v>
+        <v>555896.9914527654</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.287868614635875e-06</v>
+        <v>4.711369992469671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>449518.1042143361</v>
+        <v>502842.9627948405</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.7691865429284</v>
+        <v>304.1257761199367</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.8465906383618</v>
+        <v>416.1183039696106</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.3580739178036</v>
+        <v>376.4045570644578</v>
       </c>
       <c r="AD3" t="n">
-        <v>271769.1865429285</v>
+        <v>304125.7761199367</v>
       </c>
       <c r="AE3" t="n">
-        <v>371846.5906383618</v>
+        <v>416118.3039696106</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.653555530839381e-06</v>
+        <v>5.46442300985816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.4111328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>336358.0739178035</v>
+        <v>376404.5570644579</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>505.5047640840343</v>
+        <v>550.4647420531078</v>
       </c>
       <c r="AB2" t="n">
-        <v>691.6539195160213</v>
+        <v>753.1701448675479</v>
       </c>
       <c r="AC2" t="n">
-        <v>625.6434401797845</v>
+        <v>681.2886433223259</v>
       </c>
       <c r="AD2" t="n">
-        <v>505504.7640840343</v>
+        <v>550464.7420531078</v>
       </c>
       <c r="AE2" t="n">
-        <v>691653.9195160214</v>
+        <v>753170.1448675479</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.942517306615551e-06</v>
+        <v>3.848484424729902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.430989583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>625643.4401797845</v>
+        <v>681288.6433223259</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.0239175022526</v>
+        <v>336.7225881425527</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.6106923983238</v>
+        <v>460.7187002488064</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.0408298255886</v>
+        <v>416.7483541198165</v>
       </c>
       <c r="AD3" t="n">
-        <v>303023.9175022526</v>
+        <v>336722.5881425527</v>
       </c>
       <c r="AE3" t="n">
-        <v>414610.6923983238</v>
+        <v>460718.7002488064</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.567886126124262e-06</v>
+        <v>5.08745519394494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.378580729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>375040.8298255886</v>
+        <v>416748.3541198165</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.3661924898215</v>
+        <v>322.0648631301215</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.5553463831266</v>
+        <v>440.663354233609</v>
       </c>
       <c r="AC4" t="n">
-        <v>356.8995378862268</v>
+        <v>398.6070621804547</v>
       </c>
       <c r="AD4" t="n">
-        <v>288366.1924898215</v>
+        <v>322064.8631301216</v>
       </c>
       <c r="AE4" t="n">
-        <v>394555.3463831266</v>
+        <v>440663.354233609</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631278299300527e-06</v>
+        <v>5.213046760253143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>356899.5378862268</v>
+        <v>398607.0621804547</v>
       </c>
     </row>
   </sheetData>
